--- a/SAFI_messy_copy.xlsx
+++ b/SAFI_messy_copy.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="27526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="5540" windowWidth="25600" windowHeight="16000"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mozambique" sheetId="2" r:id="rId1"/>
     <sheet name="Tanzania" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="49">
   <si>
     <t>key_id</t>
   </si>
@@ -64,33 +64,15 @@
     <t>rooms</t>
   </si>
   <si>
-    <t>errth</t>
-  </si>
-  <si>
-    <t>mabati_sloping</t>
-  </si>
-  <si>
     <t>plots</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>Plots</t>
-  </si>
-  <si>
     <t>wall type</t>
   </si>
   <si>
     <t>floor type</t>
   </si>
   <si>
-    <t>water use</t>
-  </si>
-  <si>
     <t>Livestock</t>
   </si>
   <si>
@@ -175,17 +157,26 @@
     <t>livestock_owned_and_numbers</t>
   </si>
   <si>
-    <t>includes barn</t>
-  </si>
-  <si>
-    <t>yes (only in summer)</t>
+    <t>wall_type</t>
+  </si>
+  <si>
+    <t>floor_type</t>
+  </si>
+  <si>
+    <t>Barn</t>
+  </si>
+  <si>
+    <t>water_use</t>
+  </si>
+  <si>
+    <t>water_use_summer_only</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,8 +325,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -517,18 +524,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -684,8 +685,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -728,18 +740,34 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -750,11 +778,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="60">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -783,11 +816,29 @@
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1100,7 +1151,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1110,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1123,467 +1174,499 @@
     <col min="11" max="11" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="30">
+    <row r="2" spans="2:10" ht="30">
       <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="5"/>
+      <c r="C8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="5">
+        <v>2</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="5">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="5">
+        <v>3</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="5">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="5">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="5">
+        <v>3</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="5">
+        <v>5</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="5">
+        <v>6</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="5">
+        <v>7</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="5">
+        <v>4</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="5">
+        <v>8</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="5">
+        <v>3</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="5">
+        <v>2</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="5">
+        <v>9</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="5">
+        <v>10</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="5">
+        <v>5</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="6"/>
-      <c r="C8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="6" t="s">
+    <row r="20" spans="2:10">
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="5"/>
+      <c r="C22" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="1"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="C23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="5">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="D24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="5">
+        <v>2</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="6">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="D25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="5">
         <v>3</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="C26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="5">
         <v>4</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="6">
-        <v>2</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="C27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="5">
         <v>5</v>
       </c>
-      <c r="F11" s="6">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="6">
-        <v>3</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="C28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="5">
+        <v>6</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="5">
+        <v>7</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="5">
         <v>8</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="C31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="5">
         <v>9</v>
       </c>
-      <c r="F12" s="6">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="6">
-        <v>4</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="6">
-        <v>5</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="6">
+      <c r="C32" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="6">
-        <v>7</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="6">
-        <v>8</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="6">
-        <v>9</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="6">
-        <v>10</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="H21" s="6"/>
-      <c r="I21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" s="11"/>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22" s="6"/>
-      <c r="C22" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="1"/>
-      <c r="H22" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="6">
-        <v>1</v>
-      </c>
-      <c r="I23" s="6">
-        <v>2</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" s="6">
-        <v>1</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H24" s="6">
-        <v>2</v>
-      </c>
-      <c r="I24" s="6">
-        <v>3</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="6">
-        <v>2</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H25" s="6">
-        <v>3</v>
-      </c>
-      <c r="I25" s="6">
-        <v>1</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="6">
-        <v>3</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H26" s="6">
-        <v>4</v>
-      </c>
-      <c r="I26" s="6">
-        <v>3</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="6">
-        <v>4</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H27" s="6">
-        <v>5</v>
-      </c>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10">
-      <c r="B28" s="6">
-        <v>5</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H28" s="6">
-        <v>6</v>
-      </c>
-      <c r="I28" s="6">
-        <v>1</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="B29" s="6">
-        <v>6</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H29" s="6">
-        <v>7</v>
-      </c>
-      <c r="I29" s="6">
-        <v>4</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30" s="6">
-        <v>7</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H30" s="6">
-        <v>8</v>
-      </c>
-      <c r="I30" s="6">
-        <v>2</v>
-      </c>
-      <c r="J30" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10">
-      <c r="B31" s="6">
-        <v>8</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H31" s="6">
-        <v>9</v>
-      </c>
-      <c r="I31" s="6">
-        <v>-999</v>
-      </c>
-      <c r="J31" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10">
-      <c r="B32" s="6">
-        <v>9</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H32" s="6">
-        <v>10</v>
-      </c>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
+      <c r="E32" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H32" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C8:F8"/>
+  <mergeCells count="1">
     <mergeCell ref="C22:E22"/>
-    <mergeCell ref="I21:J21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1596,8 +1679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1611,422 +1694,422 @@
   <sheetData>
     <row r="5" spans="2:9" ht="28">
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2"/>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="7"/>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="C9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="7">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="7">
-        <v>2</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="6">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>3</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>4</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>5</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>6</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>7</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>8</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>48</v>
+      <c r="F17" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>9</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>10</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="30">
       <c r="C23" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="H25" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="7" t="s">
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="6">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="6">
+        <v>2</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4">
+        <v>2</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4">
+        <v>2</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="6">
+        <v>3</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="4">
+        <v>3</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="7">
-        <v>1</v>
-      </c>
-      <c r="C26" s="5">
-        <v>1</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5">
-        <v>1</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="7">
-        <v>2</v>
-      </c>
-      <c r="C27" s="5">
-        <v>1</v>
-      </c>
-      <c r="D27" s="5">
-        <v>2</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5">
-        <v>2</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="7">
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="6">
+        <v>4</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4">
+        <v>2</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="6">
+        <v>5</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="4">
         <v>3</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5">
-        <v>1</v>
-      </c>
-      <c r="E28" s="5">
-        <v>1</v>
-      </c>
-      <c r="F28" s="5">
+      <c r="H30" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="6">
+        <v>6</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4">
+        <v>4</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="6">
+        <v>7</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4">
+        <v>2</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="6">
+        <v>8</v>
+      </c>
+      <c r="C33" s="4">
         <v>0</v>
       </c>
-      <c r="G28" s="5">
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="6">
+        <v>9</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4">
         <v>3</v>
       </c>
-      <c r="H28" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="7">
-        <v>4</v>
-      </c>
-      <c r="C29" s="5">
-        <v>1</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5">
-        <v>1</v>
-      </c>
-      <c r="G29" s="5">
-        <v>2</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="7">
-        <v>5</v>
-      </c>
-      <c r="C30" s="5">
-        <v>1</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G30" s="5">
-        <v>3</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="7">
-        <v>6</v>
-      </c>
-      <c r="C31" s="5">
-        <v>1</v>
-      </c>
-      <c r="D31" s="5">
-        <v>1</v>
-      </c>
-      <c r="E31" s="5">
-        <v>1</v>
-      </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5">
-        <v>4</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="7">
-        <v>7</v>
-      </c>
-      <c r="C32" s="5">
-        <v>1</v>
-      </c>
-      <c r="D32" s="5">
-        <v>1</v>
-      </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5">
-        <v>2</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="7">
-        <v>8</v>
-      </c>
-      <c r="C33" s="5">
-        <v>0</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5">
-        <v>1</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="7">
-        <v>9</v>
-      </c>
-      <c r="C34" s="5">
-        <v>1</v>
-      </c>
-      <c r="D34" s="5">
-        <v>1</v>
-      </c>
-      <c r="E34" s="5">
-        <v>0</v>
-      </c>
-      <c r="F34" s="5">
-        <v>1</v>
-      </c>
-      <c r="G34" s="5">
-        <v>3</v>
-      </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="2:8">
       <c r="C36" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2034,6 +2117,7 @@
     <mergeCell ref="C8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
